--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39238AC5-B9B9-4441-92F4-F63CA3C52EF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A7E0C-9705-4966-B8C3-F525FD7FEB41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2730" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Milestone4</t>
   </si>
@@ -83,6 +83,27 @@
   </si>
   <si>
     <t>(2498/6000)</t>
+  </si>
+  <si>
+    <t>0-9000 actions 60% random</t>
+  </si>
+  <si>
+    <t>9000-18000 actions 40% random</t>
+  </si>
+  <si>
+    <t>18000-27000 actions 20% random</t>
+  </si>
+  <si>
+    <t>(5011/9000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (3193/9000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (1217/9000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.3% (1840/2477)  6000 actions </t>
   </si>
 </sst>
 </file>
@@ -411,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,14 +586,79 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7A7E0C-9705-4966-B8C3-F525FD7FEB41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C9A7E2-EC9F-4B11-819E-5EE77BF4AB19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2730" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Milestone4</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t xml:space="preserve">74.3% (1840/2477)  6000 actions </t>
+  </si>
+  <si>
+    <t>1811/9000</t>
+  </si>
+  <si>
+    <t>3585/9000</t>
+  </si>
+  <si>
+    <t>4343/9000</t>
   </si>
 </sst>
 </file>
@@ -432,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,6 +670,70 @@
         <v>27</v>
       </c>
     </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1">
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
